--- a/dist/serena/大类26小类3/14点后订单概率的权重列表.xlsx
+++ b/dist/serena/大类26小类3/14点后订单概率的权重列表.xlsx
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.75</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6333333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -420,7 +420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5333333333333333</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4625668449197861</v>
+        <v>0.5746031746031746</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5746031746031746</v>
+        <v>0.4625668449197861</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5450928381962865</v>
+        <v>0.5405679513184585</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -492,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6428571428571429</v>
+        <v>0.4226190476190476</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -508,7 +508,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4226190476190476</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -524,7 +524,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5346320346320346</v>
+        <v>0.5377668308702792</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3888888888888889</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -572,7 +572,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2888888888888889</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.25</v>
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5634920634920635</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -604,7 +604,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4</v>
+        <v>0.5634920634920635</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -660,7 +660,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -684,7 +684,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4142857142857143</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.4142857142857143</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -788,7 +788,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.5192307692307692</v>
+        <v>0.418859649122807</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.418859649122807</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -828,7 +828,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.3888888888888889</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5606617647058824</v>
+        <v>0.5058139534883721</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5058139534883721</v>
+        <v>0.5606617647058824</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -876,7 +876,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.4736842105263158</v>
+        <v>0.544463818657367</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.5508255933952528</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4821200510855683</v>
+        <v>0.4613095238095238</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.4090909090909091</v>
+        <v>0.4821200510855683</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.4613095238095238</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -972,7 +972,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5</v>
+        <v>0.4392156862745098</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.4392156862745098</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5358974358974359</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.4285714285714285</v>
+        <v>0.5358974358974359</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>
